--- a/pred_ohlcv/54_21/2020-01-20 BCH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 BCH ohlcv.xlsx
@@ -2420,7 +2420,7 @@
         <v>-2348.91598884</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-2493.48328884</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-2451.0753497</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-2561.7048497</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-2452.1166497</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-2591.3050497</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-2488.9834497</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-2488.9834497</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-2446.7753497</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-2439.79575339</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-2423.48179268</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-2395.08109268</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-2491.932892679999</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-2478.54039268</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-2479.694992679999</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-2163.19579268</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-2184.61979268</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-2176.60769268</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-2174.67108751</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-2193.09194765</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-2212.50309542</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-2196.39239542</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-2196.39239542</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-2185.780795419999</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-2201.729795419999</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-2201.729795419999</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-2213.083595419999</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-1941.390186119999</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-1933.849586119999</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-2380.819783739998</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-2380.819783739998</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-2393.420583739999</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-2393.420583739999</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-2372.629183739999</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-2359.129283739999</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-2346.453683739999</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-2346.461379989999</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-2356.879879989999</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-2368.060479989999</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-2155.313616049999</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-2118.81371605</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-2031.90131605</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-1901.45632481</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-1914.65802481</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-2087.58211505</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-2085.58211505</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-2097.85294808</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-2098.02174808</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-2096.99704808</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-2095.76084808</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-2087.02824808</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-1449.343319520002</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-1027.403861170002</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-787.9357611700018</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-1264.833126350002</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-1453.384328870002</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-1232.277128870002</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-994.4523276200018</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-1165.620594740002</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-965.8693947400017</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-614.7571473100016</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-370.7181473100017</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-567.7955473100017</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-763.6926814000017</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-938.0633807700017</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-779.5789805300017</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-695.131429450002</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-437.5990294500019</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-602.8628286000019</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-536.6288085700019</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-668.7417085700018</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-761.9804635100019</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>412.2143169499983</v>
       </c>
       <c r="H722">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>601.5245624299982</v>
       </c>
       <c r="H723">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>927.6335050999983</v>
       </c>
       <c r="H724">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>623.3645050999983</v>
       </c>
       <c r="H725">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>545.7010518699983</v>
       </c>
       <c r="H726">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>467.3159518699983</v>
       </c>
       <c r="H727">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>626.4744518699983</v>
       </c>
       <c r="H728">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>569.0497683999984</v>
       </c>
       <c r="H729">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>493.5729683999983</v>
       </c>
       <c r="H730">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>447.4037683999983</v>
       </c>
       <c r="H731">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>416.5013683999983</v>
       </c>
       <c r="H732">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>507.8981683999983</v>
       </c>
       <c r="H733">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>490.4635683999983</v>
       </c>
       <c r="H734">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>490.4635683999983</v>
       </c>
       <c r="H735">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>667.8963683999983</v>
       </c>
       <c r="H736">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>474.0957683999983</v>
       </c>
       <c r="H737">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>459.7129683999983</v>
       </c>
       <c r="H738">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>437.0445237199983</v>
       </c>
       <c r="H739">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>450.4693237199983</v>
       </c>
       <c r="H740">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>565.7110242099983</v>
       </c>
       <c r="H741">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>467.1477242099983</v>
       </c>
       <c r="H742">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>436.5182242099983</v>
       </c>
       <c r="H743">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>436.5182242099983</v>
       </c>
       <c r="H744">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>224.2892242099983</v>
       </c>
       <c r="H745">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-40.94067665000173</v>
       </c>
       <c r="H746">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>75.75932334999827</v>
       </c>
       <c r="H747">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>143.6814233499983</v>
       </c>
       <c r="H748">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>145.0763233499983</v>
       </c>
       <c r="H749">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>85.65202334999829</v>
       </c>
       <c r="H750">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-25.52947665000171</v>
       </c>
       <c r="H751">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-27.20667665000171</v>
       </c>
       <c r="H752">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-161.3318766500017</v>
       </c>
       <c r="H753">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-481.2555766500017</v>
       </c>
       <c r="H754">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-466.6434766500017</v>
       </c>
       <c r="H755">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>-386.8399766500017</v>
       </c>
       <c r="H756">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -30474,7 +30474,7 @@
         <v>-3184.282633110001</v>
       </c>
       <c r="H1157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1158" spans="1:8">
@@ -30500,7 +30500,7 @@
         <v>-3121.279233110001</v>
       </c>
       <c r="H1158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1159" spans="1:8">
@@ -30526,7 +30526,7 @@
         <v>-3121.279233110001</v>
       </c>
       <c r="H1159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1160" spans="1:8">
@@ -30552,7 +30552,7 @@
         <v>-2837.863716950001</v>
       </c>
       <c r="H1160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1161" spans="1:8">
@@ -31644,7 +31644,7 @@
         <v>-3265.983003050001</v>
       </c>
       <c r="H1202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1203" spans="1:8">
@@ -31670,7 +31670,7 @@
         <v>-3241.88130305</v>
       </c>
       <c r="H1203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1204" spans="1:8">
@@ -31696,7 +31696,7 @@
         <v>-3162.702603050001</v>
       </c>
       <c r="H1204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1205" spans="1:8">
@@ -31722,7 +31722,7 @@
         <v>-3117.175331010001</v>
       </c>
       <c r="H1205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1206" spans="1:8">
@@ -31748,7 +31748,7 @@
         <v>-3239.891631010001</v>
       </c>
       <c r="H1206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1207" spans="1:8">
@@ -31774,7 +31774,7 @@
         <v>-3436.292931010001</v>
       </c>
       <c r="H1207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1208" spans="1:8">
@@ -32138,7 +32138,7 @@
         <v>-3649.79592288</v>
       </c>
       <c r="H1221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1222" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-20 BCH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 BCH ohlcv.xlsx
@@ -2420,7 +2420,7 @@
         <v>-2348.91598884</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-2493.48328884</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-2451.0753497</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-2561.7048497</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-2452.1166497</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-2591.3050497</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-2488.9834497</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-2488.9834497</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-2446.7753497</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-2439.79575339</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-2423.48179268</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-2395.08109268</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-2491.932892679999</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-2478.54039268</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-2479.694992679999</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-2163.19579268</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-2184.61979268</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-2176.60769268</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-2174.67108751</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-2193.09194765</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-2212.50309542</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-2196.39239542</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-2196.39239542</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-2185.780795419999</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-2201.729795419999</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-2201.729795419999</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-2213.083595419999</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-1941.390186119999</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-1933.849586119999</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-2380.819783739998</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-2380.819783739998</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-2393.420583739999</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-2393.420583739999</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-2372.629183739999</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-2359.129283739999</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-2346.453683739999</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-2346.461379989999</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-2356.879879989999</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-2368.060479989999</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-2155.313616049999</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-2118.81371605</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-2031.90131605</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-1901.45632481</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-1914.65802481</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-2087.58211505</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-2085.58211505</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-2097.85294808</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-2098.02174808</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-2096.99704808</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-2095.76084808</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-2087.02824808</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-1449.343319520002</v>
       </c>
       <c r="H487">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-1027.403861170002</v>
       </c>
       <c r="H488">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-787.9357611700018</v>
       </c>
       <c r="H489">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-1264.833126350002</v>
       </c>
       <c r="H490">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-1453.384328870002</v>
       </c>
       <c r="H491">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-1232.277128870002</v>
       </c>
       <c r="H492">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-994.4523276200018</v>
       </c>
       <c r="H493">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-1165.620594740002</v>
       </c>
       <c r="H494">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-965.8693947400017</v>
       </c>
       <c r="H495">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-614.7571473100016</v>
       </c>
       <c r="H496">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-370.7181473100017</v>
       </c>
       <c r="H497">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-567.7955473100017</v>
       </c>
       <c r="H498">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-763.6926814000017</v>
       </c>
       <c r="H499">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-938.0633807700017</v>
       </c>
       <c r="H500">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-779.5789805300017</v>
       </c>
       <c r="H501">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-695.131429450002</v>
       </c>
       <c r="H515">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-437.5990294500019</v>
       </c>
       <c r="H517">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-602.8628286000019</v>
       </c>
       <c r="H518">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-582.0619564000017</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-644.0463564000017</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-788.2890060200018</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>636.4708504399983</v>
       </c>
       <c r="H721">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>412.2143169499983</v>
       </c>
       <c r="H722">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>601.5245624299982</v>
       </c>
       <c r="H723">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>927.6335050999983</v>
       </c>
       <c r="H724">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>623.3645050999983</v>
       </c>
       <c r="H725">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>545.7010518699983</v>
       </c>
       <c r="H726">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>467.3159518699983</v>
       </c>
       <c r="H727">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>626.4744518699983</v>
       </c>
       <c r="H728">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>569.0497683999984</v>
       </c>
       <c r="H729">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>493.5729683999983</v>
       </c>
       <c r="H730">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>447.4037683999983</v>
       </c>
       <c r="H731">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>416.5013683999983</v>
       </c>
       <c r="H732">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>507.8981683999983</v>
       </c>
       <c r="H733">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>490.4635683999983</v>
       </c>
       <c r="H734">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>490.4635683999983</v>
       </c>
       <c r="H735">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>667.8963683999983</v>
       </c>
       <c r="H736">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>474.0957683999983</v>
       </c>
       <c r="H737">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>459.7129683999983</v>
       </c>
       <c r="H738">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>437.0445237199983</v>
       </c>
       <c r="H739">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>450.4693237199983</v>
       </c>
       <c r="H740">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>565.7110242099983</v>
       </c>
       <c r="H741">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>467.1477242099983</v>
       </c>
       <c r="H742">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>436.5182242099983</v>
       </c>
       <c r="H743">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>436.5182242099983</v>
       </c>
       <c r="H744">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>224.2892242099983</v>
       </c>
       <c r="H745">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-40.94067665000173</v>
       </c>
       <c r="H746">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>75.75932334999827</v>
       </c>
       <c r="H747">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>143.6814233499983</v>
       </c>
       <c r="H748">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>145.0763233499983</v>
       </c>
       <c r="H749">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>85.65202334999829</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-25.52947665000171</v>
       </c>
       <c r="H751">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-27.20667665000171</v>
       </c>
       <c r="H752">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -30474,7 +30474,7 @@
         <v>-3184.282633110001</v>
       </c>
       <c r="H1157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1158" spans="1:8">
@@ -30500,7 +30500,7 @@
         <v>-3121.279233110001</v>
       </c>
       <c r="H1158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1159" spans="1:8">
@@ -30526,7 +30526,7 @@
         <v>-3121.279233110001</v>
       </c>
       <c r="H1159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1160" spans="1:8">
@@ -30552,7 +30552,7 @@
         <v>-2837.863716950001</v>
       </c>
       <c r="H1160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1161" spans="1:8">
@@ -31644,7 +31644,7 @@
         <v>-3265.983003050001</v>
       </c>
       <c r="H1202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1203" spans="1:8">
@@ -31722,7 +31722,7 @@
         <v>-3117.175331010001</v>
       </c>
       <c r="H1205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1206" spans="1:8">
@@ -31748,7 +31748,7 @@
         <v>-3239.891631010001</v>
       </c>
       <c r="H1206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1207" spans="1:8">
@@ -31774,7 +31774,7 @@
         <v>-3436.292931010001</v>
       </c>
       <c r="H1207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1208" spans="1:8">
@@ -32138,7 +32138,7 @@
         <v>-3649.79592288</v>
       </c>
       <c r="H1221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1222" spans="1:8">
@@ -32190,7 +32190,7 @@
         <v>-3450.017922880001</v>
       </c>
       <c r="H1223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1224" spans="1:8">
@@ -32710,7 +32710,7 @@
         <v>-3326.54448122</v>
       </c>
       <c r="H1243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1244" spans="1:8">
@@ -32762,7 +32762,7 @@
         <v>-3295.92288122</v>
       </c>
       <c r="H1245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1246" spans="1:8">
@@ -32788,7 +32788,7 @@
         <v>-3286.86828122</v>
       </c>
       <c r="H1246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1247" spans="1:8">
@@ -32814,7 +32814,7 @@
         <v>-3286.76908122</v>
       </c>
       <c r="H1247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1248" spans="1:8">
@@ -32866,7 +32866,7 @@
         <v>-3286.76908122</v>
       </c>
       <c r="H1249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1250" spans="1:8">
@@ -32892,7 +32892,7 @@
         <v>-3286.76908122</v>
       </c>
       <c r="H1250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1251" spans="1:8">
@@ -32918,7 +32918,7 @@
         <v>-3181.09348122</v>
       </c>
       <c r="H1251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1252" spans="1:8">
@@ -32970,7 +32970,7 @@
         <v>-3132.2594897</v>
       </c>
       <c r="H1253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1254" spans="1:8">
@@ -33022,7 +33022,7 @@
         <v>-3126.5285897</v>
       </c>
       <c r="H1255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1256" spans="1:8">
@@ -33048,7 +33048,7 @@
         <v>-3161.8825897</v>
       </c>
       <c r="H1256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1257" spans="1:8">
